--- a/FishLandings/household groups/statistics/Selenium (ug)_output.xlsx
+++ b/FishLandings/household groups/statistics/Selenium (ug)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>45120885.777278</v>
+        <v>63270626.916399</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>47.463299</v>
+        <v>80.910121</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>7675081.493396</v>
+        <v>14258703.62183</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4.036763</v>
+        <v>9.116975</v>
       </c>
       <c r="E3">
-        <v>0.01896</v>
+        <v>0.00014</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>211994483.83322</v>
+        <v>259619536.3897</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-340.337055</v>
+        <v>-360.596008</v>
       </c>
       <c r="H5">
-        <v>-766.159908</v>
+        <v>-681.210902</v>
       </c>
       <c r="I5">
-        <v>85.48579700000001</v>
+        <v>-39.981114</v>
       </c>
       <c r="J5">
-        <v>0.145163</v>
+        <v>0.023029</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>42.263302</v>
+        <v>73.44803</v>
       </c>
       <c r="H6">
-        <v>-416.257748</v>
+        <v>-263.306309</v>
       </c>
       <c r="I6">
-        <v>500.784352</v>
+        <v>410.202369</v>
       </c>
       <c r="J6">
-        <v>0.974266</v>
+        <v>0.864832</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>382.600357</v>
+        <v>434.044038</v>
       </c>
       <c r="H7">
-        <v>35.953675</v>
+        <v>180.827266</v>
       </c>
       <c r="I7">
-        <v>729.24704</v>
+        <v>687.260809</v>
       </c>
       <c r="J7">
-        <v>0.02648</v>
+        <v>0.000199</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Selenium (ug)_output.xlsx
+++ b/FishLandings/household groups/statistics/Selenium (ug)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>63270626.916399</v>
+        <v>45120885.777278</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>80.910121</v>
+        <v>47.463299</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>14258703.62183</v>
+        <v>7675081.493396</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9.116975</v>
+        <v>4.036763</v>
       </c>
       <c r="E3">
-        <v>0.00014</v>
+        <v>0.01896</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>259619536.3897</v>
+        <v>211994483.83322</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-360.596008</v>
+        <v>-340.337055</v>
       </c>
       <c r="H5">
-        <v>-681.210902</v>
+        <v>-766.159908</v>
       </c>
       <c r="I5">
-        <v>-39.981114</v>
+        <v>85.48579700000001</v>
       </c>
       <c r="J5">
-        <v>0.023029</v>
+        <v>0.145163</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>73.44803</v>
+        <v>42.263302</v>
       </c>
       <c r="H6">
-        <v>-263.306309</v>
+        <v>-416.257748</v>
       </c>
       <c r="I6">
-        <v>410.202369</v>
+        <v>500.784352</v>
       </c>
       <c r="J6">
-        <v>0.864832</v>
+        <v>0.974266</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>434.044038</v>
+        <v>382.600357</v>
       </c>
       <c r="H7">
-        <v>180.827266</v>
+        <v>35.953675</v>
       </c>
       <c r="I7">
-        <v>687.260809</v>
+        <v>729.24704</v>
       </c>
       <c r="J7">
-        <v>0.000199</v>
+        <v>0.02648</v>
       </c>
     </row>
   </sheetData>
